--- a/biology/Zoologie/Hydrophylax_leptoglossa/Hydrophylax_leptoglossa.xlsx
+++ b/biology/Zoologie/Hydrophylax_leptoglossa/Hydrophylax_leptoglossa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydrophylax leptoglossa est une espèce d'amphibiens de la famille des Ranidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydrophylax leptoglossa est une espèce d'amphibiens de la famille des Ranidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Bangladesh dans les districts de Chittagong, de Sylhet, de Barisal, de Dhaka et de Mymensingh ;
 en Birmanie ;
 dans le nord-est de l'Inde dans les États d'Assam, du Mizoram, du Tripura et du Meghalaya ;
@@ -545,7 +559,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cope, 1868 : An examination of the Reptilia and Batrachia obtained by the Orton Expedition to Equador and the Upper Amazon, with notes on other species. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 20, p. 96-140 (texte intégral).</t>
         </is>
